--- a/tests/stubs/excel/valid.xlsx
+++ b/tests/stubs/excel/valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sparclex/code/nova/tests/stubs/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6934FCFB-66D2-B84C-8AAB-2C2D797A0BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FDD76B-1233-8541-9C0A-BB4E2C6647B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17100" xr2:uid="{51B067B7-577F-444B-9F89-E82354CD8B3B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>sample</t>
   </si>
@@ -45,16 +45,10 @@
     <t>HIV Test</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>Bagamoyo</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Negative</t>
   </si>
   <si>
     <t>Basel</t>
@@ -418,7 +412,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,14 +441,14 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -464,14 +458,14 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -479,16 +473,16 @@
         <v>1179587</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
